--- a/gradient_Descent/student-mat1.xlsx
+++ b/gradient_Descent/student-mat1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itsme\Downloads\project\gradient_Descent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itsme\Downloads\project\prediction_model\gradient_Descent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1005A416-0D2E-445B-A339-80689FEF5E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5703B8-708D-47BC-9B3E-1CD2E0AE3F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="student-mat" sheetId="1" r:id="rId1"/>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/gradient_Descent/student-mat1.xlsx
+++ b/gradient_Descent/student-mat1.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itsme\Downloads\project\prediction_model\gradient_Descent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5703B8-708D-47BC-9B3E-1CD2E0AE3F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95E85A2-9102-4BF1-986C-4F0A65078091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="student-mat" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'student-mat'!$AJ$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'student-mat'!$AJ$2:$AJ$396</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'student-mat'!$AJ$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'student-mat'!$AJ$2:$AJ$396</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'student-mat'!$AJ$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'student-mat'!$AJ$2:$AJ$396</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'student-mat'!$AJ$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'student-mat'!$AJ$2:$AJ$396</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'student-mat'!$AJ$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'student-mat'!$AJ$2:$AJ$396</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3943" uniqueCount="55">
   <si>
     <t>sex</t>
   </si>
@@ -184,6 +196,18 @@
   </si>
   <si>
     <t>freetime-normalised</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>t  values</t>
+  </si>
+  <si>
+    <t>BIN COUNT</t>
   </si>
 </sst>
 </file>
@@ -764,6 +788,757 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v/>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{DBEA3982-FB48-4EB1-A54B-5606444BBE3B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>G3</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Marks</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Marks</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Frequency</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Frequency</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A84D5B-F1FA-094D-87CB-1721A96BCBF6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="23698200" y="1139190"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1063,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AQ24" sqref="AQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,6 +1953,9 @@
       <c r="AJ1" t="s">
         <v>31</v>
       </c>
+      <c r="AN1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -1223,7 +2001,7 @@
         <v>0.5</v>
       </c>
       <c r="O2">
-        <f>(P2)/5</f>
+        <f t="shared" ref="O2:O65" si="0">(P2)/5</f>
         <v>0</v>
       </c>
       <c r="P2">
@@ -1257,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="Z2">
-        <f>(AA2-1)/4</f>
+        <f t="shared" ref="Z2:Z65" si="1">(AA2-1)/4</f>
         <v>0.5</v>
       </c>
       <c r="AA2">
@@ -1273,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="AE2">
-        <f>(AF2-1)/4</f>
+        <f t="shared" ref="AE2:AE65" si="2">(AF2-1)/4</f>
         <v>0.5</v>
       </c>
       <c r="AF2">
@@ -1290,6 +2068,9 @@
       </c>
       <c r="AJ2">
         <v>0.3</v>
+      </c>
+      <c r="AN2">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
@@ -1336,7 +2117,7 @@
         <v>0.5</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" si="0">(P3)/5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3">
@@ -1370,7 +2151,7 @@
         <v>5</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z66" si="1">(AA3-1)/4</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="AA3">
@@ -1386,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE66" si="2">(AF3-1)/4</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AF3">
@@ -1406,6 +2187,9 @@
       </c>
       <c r="AL3">
         <v>20</v>
+      </c>
+      <c r="AN3">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
@@ -1520,8 +2304,18 @@
       <c r="AJ4">
         <v>0.5</v>
       </c>
+      <c r="AK4">
+        <f>AVERAGE(AJ2:AJ396)</f>
+        <v>0.52075949367088636</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM4">
+        <v>-1</v>
+      </c>
       <c r="AN4">
-        <v>-1</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1636,6 +2430,9 @@
       <c r="AJ5" s="4">
         <v>0.75</v>
       </c>
+      <c r="AN5" s="4">
+        <v>122</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1749,8 +2546,15 @@
       <c r="AJ6">
         <v>0.5</v>
       </c>
-      <c r="AM6">
-        <v>1</v>
+      <c r="AK6">
+        <f>STDEV(AJ2:AJ396)</f>
+        <v>0.22907213054989045</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN6">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1978,6 +2782,13 @@
       <c r="AJ8">
         <v>0.55000000000000004</v>
       </c>
+      <c r="AK8">
+        <f>(AK4-0)/(AK6/(SQRT(295)))</f>
+        <v>39.045945965205107</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -8467,7 +9278,7 @@
         <v>0.5</v>
       </c>
       <c r="O66">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O66:O129" si="3">(P66)/5</f>
         <v>0</v>
       </c>
       <c r="P66">
@@ -8501,7 +9312,7 @@
         <v>4</v>
       </c>
       <c r="Z66">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Z66:Z129" si="4">(AA66-1)/4</f>
         <v>0.75</v>
       </c>
       <c r="AA66">
@@ -8517,7 +9328,7 @@
         <v>4</v>
       </c>
       <c r="AE66">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AE66:AE129" si="5">(AF66-1)/4</f>
         <v>0.25</v>
       </c>
       <c r="AF66">
@@ -8580,7 +9391,7 @@
         <v>0.5</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O130" si="3">(P67)/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P67">
@@ -8614,7 +9425,7 @@
         <v>5</v>
       </c>
       <c r="Z67">
-        <f t="shared" ref="Z67:Z130" si="4">(AA67-1)/4</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="AA67">
@@ -8630,7 +9441,7 @@
         <v>2</v>
       </c>
       <c r="AE67">
-        <f t="shared" ref="AE67:AE130" si="5">(AF67-1)/4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF67">
@@ -15699,7 +16510,7 @@
         <v>0.25</v>
       </c>
       <c r="O130">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O130:O193" si="6">(P130)/5</f>
         <v>0.4</v>
       </c>
       <c r="P130">
@@ -15733,7 +16544,7 @@
         <v>3</v>
       </c>
       <c r="Z130">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Z130:Z193" si="7">(AA130-1)/4</f>
         <v>0.5</v>
       </c>
       <c r="AA130">
@@ -15749,7 +16560,7 @@
         <v>2</v>
       </c>
       <c r="AE130">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AE130:AE193" si="8">(AF130-1)/4</f>
         <v>0.75</v>
       </c>
       <c r="AF130">
@@ -15812,7 +16623,7 @@
         <v>0.25</v>
       </c>
       <c r="O131">
-        <f t="shared" ref="O131:O194" si="6">(P131)/5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P131">
@@ -15846,7 +16657,7 @@
         <v>3</v>
       </c>
       <c r="Z131">
-        <f t="shared" ref="Z131:Z194" si="7">(AA131-1)/4</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AA131">
@@ -15862,7 +16673,7 @@
         <v>5</v>
       </c>
       <c r="AE131">
-        <f t="shared" ref="AE131:AE194" si="8">(AF131-1)/4</f>
+        <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
       <c r="AF131">
@@ -22931,7 +23742,7 @@
         <v>0.5</v>
       </c>
       <c r="O194">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="O194:O257" si="9">(P194)/5</f>
         <v>0</v>
       </c>
       <c r="P194">
@@ -22965,7 +23776,7 @@
         <v>4</v>
       </c>
       <c r="Z194">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="Z194:Z257" si="10">(AA194-1)/4</f>
         <v>0.75</v>
       </c>
       <c r="AA194">
@@ -22981,7 +23792,7 @@
         <v>5</v>
       </c>
       <c r="AE194">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AE194:AE257" si="11">(AF194-1)/4</f>
         <v>1</v>
       </c>
       <c r="AF194">
@@ -23044,7 +23855,7 @@
         <v>0.25</v>
       </c>
       <c r="O195">
-        <f t="shared" ref="O195:O258" si="9">(P195)/5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P195">
@@ -23078,7 +23889,7 @@
         <v>4</v>
       </c>
       <c r="Z195">
-        <f t="shared" ref="Z195:Z258" si="10">(AA195-1)/4</f>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="AA195">
@@ -23094,7 +23905,7 @@
         <v>4</v>
       </c>
       <c r="AE195">
-        <f t="shared" ref="AE195:AE258" si="11">(AF195-1)/4</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AF195">
@@ -30163,7 +30974,7 @@
         <v>0.25</v>
       </c>
       <c r="O258">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="O258:O321" si="12">(P258)/5</f>
         <v>0</v>
       </c>
       <c r="P258">
@@ -30197,7 +31008,7 @@
         <v>4</v>
       </c>
       <c r="Z258">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="Z258:Z321" si="13">(AA258-1)/4</f>
         <v>0.25</v>
       </c>
       <c r="AA258">
@@ -30213,7 +31024,7 @@
         <v>1</v>
       </c>
       <c r="AE258">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AE258:AE321" si="14">(AF258-1)/4</f>
         <v>0.75</v>
       </c>
       <c r="AF258">
@@ -30276,7 +31087,7 @@
         <v>0.5</v>
       </c>
       <c r="O259">
-        <f t="shared" ref="O259:O322" si="12">(P259)/5</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P259">
@@ -30310,7 +31121,7 @@
         <v>4</v>
       </c>
       <c r="Z259">
-        <f t="shared" ref="Z259:Z322" si="13">(AA259-1)/4</f>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="AA259">
@@ -30326,7 +31137,7 @@
         <v>1</v>
       </c>
       <c r="AE259">
-        <f t="shared" ref="AE259:AE322" si="14">(AF259-1)/4</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF259">
@@ -37395,7 +38206,7 @@
         <v>0.5</v>
       </c>
       <c r="O322">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="O322:O385" si="15">(P322)/5</f>
         <v>0</v>
       </c>
       <c r="P322">
@@ -37429,7 +38240,7 @@
         <v>5</v>
       </c>
       <c r="Z322">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="Z322:Z385" si="16">(AA322-1)/4</f>
         <v>0.25</v>
       </c>
       <c r="AA322">
@@ -37445,7 +38256,7 @@
         <v>2</v>
       </c>
       <c r="AE322">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AE322:AE385" si="17">(AF322-1)/4</f>
         <v>1</v>
       </c>
       <c r="AF322">
@@ -37508,7 +38319,7 @@
         <v>0.5</v>
       </c>
       <c r="O323">
-        <f t="shared" ref="O323:O386" si="15">(P323)/5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P323">
@@ -37542,7 +38353,7 @@
         <v>4</v>
       </c>
       <c r="Z323">
-        <f t="shared" ref="Z323:Z386" si="16">(AA323-1)/4</f>
+        <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
       <c r="AA323">
@@ -37558,7 +38369,7 @@
         <v>1</v>
       </c>
       <c r="AE323">
-        <f t="shared" ref="AE323:AE386" si="17">(AF323-1)/4</f>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="AF323">
@@ -42662,7 +43473,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="369" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>0</v>
       </c>
@@ -42775,7 +43586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>0</v>
       </c>
@@ -42888,7 +43699,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="371" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>0</v>
       </c>
@@ -43001,7 +43812,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="372" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>0</v>
       </c>
@@ -43114,7 +43925,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="373" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>0</v>
       </c>
@@ -43227,7 +44038,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="374" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>0</v>
       </c>
@@ -43340,7 +44151,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="375" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>0</v>
       </c>
@@ -43453,7 +44264,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="376" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>0</v>
       </c>
@@ -43566,7 +44377,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="377" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>0</v>
       </c>
@@ -43679,7 +44490,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="378" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>0</v>
       </c>
@@ -43791,11 +44602,11 @@
       <c r="AJ378">
         <v>0.75</v>
       </c>
-      <c r="AN378">
+      <c r="AM378">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>0</v>
       </c>
@@ -43907,11 +44718,11 @@
       <c r="AJ379">
         <v>0.5</v>
       </c>
-      <c r="AN379">
+      <c r="AM379">
         <v>93</v>
       </c>
     </row>
-    <row r="380" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>0</v>
       </c>
@@ -44024,7 +44835,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="381" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>0</v>
       </c>
@@ -44137,7 +44948,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="382" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>0</v>
       </c>
@@ -44250,7 +45061,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="383" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>0</v>
       </c>
@@ -44363,7 +45174,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="384" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>0</v>
       </c>
@@ -44633,7 +45444,7 @@
         <v>0.25</v>
       </c>
       <c r="O386">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="O386:O449" si="18">(P386)/5</f>
         <v>0.2</v>
       </c>
       <c r="P386">
@@ -44667,7 +45478,7 @@
         <v>5</v>
       </c>
       <c r="Z386">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="Z386:Z449" si="19">(AA386-1)/4</f>
         <v>0.75</v>
       </c>
       <c r="AA386">
@@ -44683,7 +45494,7 @@
         <v>3</v>
       </c>
       <c r="AE386">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AE386:AE449" si="20">(AF386-1)/4</f>
         <v>0.5</v>
       </c>
       <c r="AF386">
@@ -44746,7 +45557,7 @@
         <v>0.75</v>
       </c>
       <c r="O387">
-        <f t="shared" ref="O387:O396" si="18">(P387)/5</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P387">
@@ -44780,7 +45591,7 @@
         <v>5</v>
       </c>
       <c r="Z387">
-        <f t="shared" ref="Z387:Z396" si="19">(AA387-1)/4</f>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="AA387">
@@ -44796,7 +45607,7 @@
         <v>3</v>
       </c>
       <c r="AE387">
-        <f t="shared" ref="AE387:AE396" si="20">(AF387-1)/4</f>
+        <f t="shared" si="20"/>
         <v>0.75</v>
       </c>
       <c r="AF387">
@@ -45835,5 +46646,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>